--- a/fjbs/部署步骤 - 晋煤.xlsx
+++ b/fjbs/部署步骤 - 晋煤.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\山西煤炭\分级部署\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cut\miao\fjbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA714AC-BA4E-4AEB-94FC-63C8C3610C73}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="7950" tabRatio="731" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="7950" tabRatio="731" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="远程" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="晋牛" sheetId="23" r:id="rId4"/>
     <sheet name="sc平台地址" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -931,30 +930,31 @@
     <t>晟泰公司</t>
   </si>
   <si>
+    <t>东河</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>青洼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.92.229.7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>山西晋煤集团临汾晋牛煤矿投资有限责任公司</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>晋煤集团直属</t>
-  </si>
-  <si>
-    <t>东河</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>青洼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.92.229.7</t>
+    <t>晋煤</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1197,7 +1197,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1234,15 +1234,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1297,88 +1291,82 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1700,14 +1688,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.5" style="1" bestFit="1" customWidth="1"/>
@@ -1720,1626 +1708,1582 @@
     <col min="9" max="14" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:8" ht="14.25">
+      <c r="A1" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F1" s="18" t="s">
+      <c r="D1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="18" t="s">
+      <c r="G1" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="39"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="17" t="s">
+    <row r="2" spans="1:8" ht="14.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="D2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="18" t="s">
+      <c r="G2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="38" t="s">
+    <row r="3" spans="1:8" ht="14.25">
+      <c r="A3" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F3" s="18" t="s">
+      <c r="D3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="18" t="s">
+      <c r="G3" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="39"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="17" t="s">
+    <row r="4" spans="1:8" ht="14.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F4" s="18" t="s">
+      <c r="D4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="18" t="s">
+      <c r="G4" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:8" ht="14.25">
+      <c r="A5" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F5" s="18" t="s">
+      <c r="D5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="18" t="s">
+      <c r="G5" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="39"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="21" t="s">
+    <row r="6" spans="1:8" ht="14.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F6" s="18" t="s">
+      <c r="D6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="18" t="s">
+      <c r="G6" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="42" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F7" s="19" t="s">
+      <c r="D7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="19" t="s">
+      <c r="G7" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="42"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="22" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="45"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="D8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="19" t="s">
+      <c r="G8" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="41" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="25">
-        <v>123456</v>
-      </c>
-      <c r="F9" s="25" t="s">
+      <c r="D9" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="23">
+        <v>123456</v>
+      </c>
+      <c r="F9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="25" t="s">
+      <c r="G9" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="42"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="23" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="45"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F10" s="19" t="s">
+      <c r="D10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="19" t="s">
+      <c r="G10" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="41" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="25">
-        <v>123456</v>
-      </c>
-      <c r="F11" s="25" t="s">
+      <c r="D11" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="23">
+        <v>123456</v>
+      </c>
+      <c r="F11" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="25" t="s">
+      <c r="G11" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="42"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="23" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="45"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F12" s="19" t="s">
+      <c r="D12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="19" t="s">
+      <c r="G12" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="41" t="s">
+    <row r="13" spans="1:8" ht="14.25">
+      <c r="A13" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="25">
-        <v>123456</v>
-      </c>
-      <c r="F13" s="25" t="s">
+      <c r="D13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="23">
+        <v>123456</v>
+      </c>
+      <c r="F13" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="25" t="s">
+      <c r="G13" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="42"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="20" t="s">
+    <row r="14" spans="1:8" ht="14.25">
+      <c r="A14" s="45"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F14" s="19" t="s">
+      <c r="D14" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="19" t="s">
+      <c r="G14" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="41" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="25">
-        <v>123456</v>
-      </c>
-      <c r="F15" s="25" t="s">
+      <c r="D15" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="23">
+        <v>123456</v>
+      </c>
+      <c r="F15" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="25" t="s">
+      <c r="G15" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="42"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="23" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="45"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F16" s="19" t="s">
+      <c r="D16" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F16" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="19" t="s">
+      <c r="G16" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="44" t="s">
+    <row r="17" spans="1:8" ht="14.25">
+      <c r="A17" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="25">
-        <v>123456</v>
-      </c>
-      <c r="F17" s="25" t="s">
+      <c r="D17" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="23">
+        <v>123456</v>
+      </c>
+      <c r="F17" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="25" t="s">
+      <c r="G17" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="20" t="s">
+    <row r="18" spans="1:8" ht="14.25">
+      <c r="A18" s="35"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F18" s="19" t="s">
+      <c r="D18" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="19" t="s">
+      <c r="G18" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="38" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F19" s="19" t="s">
+      <c r="D19" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="19" t="s">
+      <c r="G19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="39"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="19" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" s="35"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F20" s="19" t="s">
+      <c r="D20" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F20" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="19" t="s">
+      <c r="G20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="46" t="s">
+    <row r="21" spans="1:8">
+      <c r="A21" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F21" s="19" t="s">
+      <c r="D21" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F21" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="19" t="s">
+      <c r="G21" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="46"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="19" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" s="33"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F22" s="19" t="s">
+      <c r="D22" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F22" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="19" t="s">
+      <c r="G22" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="42" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F23" s="19" t="s">
+      <c r="D23" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F23" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="19" t="s">
+      <c r="G23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="42"/>
-      <c r="B24" s="45" t="s">
+    <row r="24" spans="1:8">
+      <c r="A24" s="45"/>
+      <c r="B24" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F24" s="19" t="s">
+      <c r="D24" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F24" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="19" t="s">
+      <c r="G24" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="38" t="s">
+    <row r="25" spans="1:8" ht="14.25">
+      <c r="A25" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18" t="s">
+      <c r="D25" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" s="18" t="s">
+      <c r="G25" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="39"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="18" t="s">
+    <row r="26" spans="1:8" ht="14.25">
+      <c r="A26" s="35"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18" t="s">
+      <c r="D26" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H26" s="18" t="s">
+      <c r="G26" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="42" t="s">
+    <row r="27" spans="1:8">
+      <c r="A27" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F27" s="19" t="s">
+      <c r="D27" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F27" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="19" t="s">
+      <c r="G27" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="42"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="27" t="s">
+    <row r="28" spans="1:8">
+      <c r="A28" s="45"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F28" s="19" t="s">
+      <c r="D28" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F28" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H28" s="19" t="s">
+      <c r="G28" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="42" t="s">
+    <row r="29" spans="1:8">
+      <c r="A29" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F29" s="19" t="s">
+      <c r="D29" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F29" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H29" s="19" t="s">
+      <c r="G29" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="42"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="19" t="s">
+    <row r="30" spans="1:8">
+      <c r="A30" s="45"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F30" s="19" t="s">
+      <c r="D30" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F30" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G30" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H30" s="19" t="s">
+      <c r="G30" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="42" t="s">
+    <row r="31" spans="1:8">
+      <c r="A31" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F31" s="19" t="s">
+      <c r="D31" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F31" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" s="19" t="s">
+      <c r="G31" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="42"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="19" t="s">
+    <row r="32" spans="1:8">
+      <c r="A32" s="45"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F32" s="19" t="s">
+      <c r="D32" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F32" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G32" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H32" s="19" t="s">
+      <c r="G32" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="42" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F33" s="19" t="s">
+      <c r="D33" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F33" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G33" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="19" t="s">
+      <c r="G33" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="42"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="19" t="s">
+    <row r="34" spans="1:8">
+      <c r="A34" s="45"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F34" s="19" t="s">
+      <c r="D34" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F34" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G34" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H34" s="19" t="s">
+      <c r="G34" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H34" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="42" t="s">
+    <row r="35" spans="1:8">
+      <c r="A35" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F35" s="19" t="s">
+      <c r="D35" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F35" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G35" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="19" t="s">
+      <c r="G35" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="42"/>
-      <c r="B36" s="45" t="s">
+    <row r="36" spans="1:8">
+      <c r="A36" s="45"/>
+      <c r="B36" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F36" s="19" t="s">
+      <c r="D36" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F36" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G36" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H36" s="19" t="s">
+      <c r="G36" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="42" t="s">
+    <row r="37" spans="1:8">
+      <c r="A37" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F37" s="19" t="s">
+      <c r="D37" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F37" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H37" s="19" t="s">
+      <c r="G37" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="42"/>
-      <c r="B38" s="45" t="s">
+    <row r="38" spans="1:8">
+      <c r="A38" s="45"/>
+      <c r="B38" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F38" s="19" t="s">
+      <c r="D38" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F38" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G38" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H38" s="19" t="s">
+      <c r="G38" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="42" t="s">
+    <row r="39" spans="1:8">
+      <c r="A39" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F39" s="19" t="s">
+      <c r="D39" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F39" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G39" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H39" s="19" t="s">
+      <c r="G39" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="42"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="19" t="s">
+    <row r="40" spans="1:8">
+      <c r="A40" s="45"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F40" s="19" t="s">
+      <c r="D40" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F40" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G40" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H40" s="19" t="s">
+      <c r="G40" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="42" t="s">
+    <row r="41" spans="1:8" ht="14.25">
+      <c r="A41" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F41" s="19" t="s">
+      <c r="D41" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F41" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G41" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="H41" s="19" t="s">
+      <c r="G41" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="42"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="20" t="s">
+    <row r="42" spans="1:8" ht="14.25">
+      <c r="A42" s="45"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="D42" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F42" s="19" t="s">
+      <c r="D42" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F42" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G42" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="H42" s="19" t="s">
+      <c r="G42" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="57" t="s">
+    <row r="43" spans="1:8">
+      <c r="A43" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D43" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="29" t="s">
+      <c r="D43" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="F43" s="29" t="s">
+      <c r="F43" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="G43" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="H43" s="29" t="s">
+      <c r="G43" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H43" s="27" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A44" s="58"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="27" t="s">
+    <row r="44" spans="1:8" ht="14.25">
+      <c r="A44" s="42"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D44" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" s="31" t="s">
+      <c r="D44" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="F44" s="30" t="s">
+      <c r="F44" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G44" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H44" s="30" t="s">
+      <c r="G44" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" s="28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="58"/>
-      <c r="B45" s="52" t="s">
+    <row r="45" spans="1:8">
+      <c r="A45" s="42"/>
+      <c r="B45" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="D45" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" s="29" t="s">
+      <c r="D45" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="F45" s="29" t="s">
+      <c r="F45" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="G45" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="H45" s="29" t="s">
+      <c r="G45" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" s="27" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="59"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="27" t="s">
+    <row r="46" spans="1:8">
+      <c r="A46" s="43"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="D46" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" s="30" t="s">
+      <c r="D46" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="F46" s="30" t="s">
+      <c r="F46" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G46" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H46" s="30" t="s">
+      <c r="G46" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46" s="28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="58"/>
-      <c r="B47" s="52" t="s">
+    <row r="47" spans="1:8">
+      <c r="A47" s="42"/>
+      <c r="B47" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="D47" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E47" s="29" t="s">
+      <c r="D47" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="F47" s="29" t="s">
+      <c r="F47" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="G47" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="H47" s="29" t="s">
+      <c r="G47" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" s="27" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="60"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="27" t="s">
+    <row r="48" spans="1:8">
+      <c r="A48" s="44"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="D48" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" s="30" t="s">
+      <c r="D48" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="F48" s="30" t="s">
+      <c r="F48" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G48" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H48" s="30" t="s">
+      <c r="G48" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H48" s="28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A49" s="55" t="s">
+    <row r="49" spans="1:8" ht="14.25">
+      <c r="A49" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C49" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="D49" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F49" s="19" t="s">
+      <c r="D49" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F49" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G49" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="H49" s="18" t="s">
+      <c r="G49" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A50" s="56"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="32" t="s">
+    <row r="50" spans="1:8" ht="14.25">
+      <c r="A50" s="40"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="D50" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F50" s="19" t="s">
+      <c r="D50" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F50" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G50" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="H50" s="18" t="s">
+      <c r="G50" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A51" s="38" t="s">
+    <row r="51" spans="1:8" ht="14.25">
+      <c r="A51" s="34" t="s">
         <v>59</v>
       </c>
       <c r="B51" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E51" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F51" s="18" t="s">
+      <c r="D51" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F51" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G51" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H51" s="18" t="s">
+      <c r="G51" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A52" s="39"/>
+    <row r="52" spans="1:8" ht="14.25">
+      <c r="A52" s="35"/>
       <c r="B52" s="36"/>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D52" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E52" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F52" s="18" t="s">
+      <c r="D52" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F52" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G52" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H52" s="18" t="s">
+      <c r="G52" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A53" s="38" t="s">
+    <row r="53" spans="1:8" ht="14.25">
+      <c r="A53" s="34" t="s">
         <v>59</v>
       </c>
       <c r="B53" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E53" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F53" s="18" t="s">
+      <c r="D53" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F53" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G53" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H53" s="18" t="s">
+      <c r="G53" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H53" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A54" s="39"/>
+    <row r="54" spans="1:8" ht="14.25">
+      <c r="A54" s="35"/>
       <c r="B54" s="36"/>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D54" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E54" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F54" s="18" t="s">
+      <c r="D54" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F54" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G54" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H54" s="18" t="s">
+      <c r="G54" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H54" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A55" s="38" t="s">
+    <row r="55" spans="1:8" ht="14.25">
+      <c r="A55" s="34" t="s">
         <v>59</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E55" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F55" s="18" t="s">
+      <c r="D55" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F55" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G55" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H55" s="18" t="s">
+      <c r="G55" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H55" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A56" s="39"/>
+    <row r="56" spans="1:8" ht="14.25">
+      <c r="A56" s="35"/>
       <c r="B56" s="36"/>
-      <c r="C56" s="33" t="s">
+      <c r="C56" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E56" s="19">
-        <v>123456</v>
-      </c>
-      <c r="F56" s="18" t="s">
+      <c r="D56" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="17">
+        <v>123456</v>
+      </c>
+      <c r="F56" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G56" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H56" s="18" t="s">
+      <c r="G56" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" ht="14.25">
       <c r="A57" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="B57" s="46" t="s">
+      <c r="B57" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="D57" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E57" s="34">
-        <v>123456</v>
-      </c>
-      <c r="F57" s="18" t="s">
+      <c r="D57" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="32">
+        <v>123456</v>
+      </c>
+      <c r="F57" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G57" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H57" s="18" t="s">
+      <c r="G57" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" ht="14.25">
       <c r="A58" s="36"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="18" t="s">
+      <c r="B58" s="33"/>
+      <c r="C58" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" s="34">
-        <v>123456</v>
-      </c>
-      <c r="F58" s="18" t="s">
+      <c r="D58" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" s="32">
+        <v>123456</v>
+      </c>
+      <c r="F58" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G58" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H58" s="18" t="s">
+      <c r="G58" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H58" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" ht="14.25">
       <c r="A59" s="36"/>
-      <c r="B59" s="46" t="s">
+      <c r="B59" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D59" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E59" s="34">
-        <v>123456</v>
-      </c>
-      <c r="F59" s="18" t="s">
+      <c r="D59" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" s="32">
+        <v>123456</v>
+      </c>
+      <c r="F59" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G59" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H59" s="18" t="s">
+      <c r="G59" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" ht="14.25">
       <c r="A60" s="36"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="18" t="s">
+      <c r="B60" s="33"/>
+      <c r="C60" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="D60" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E60" s="34">
-        <v>123456</v>
-      </c>
-      <c r="F60" s="18" t="s">
+      <c r="D60" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="32">
+        <v>123456</v>
+      </c>
+      <c r="F60" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G60" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H60" s="18" t="s">
+      <c r="G60" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H60" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" ht="14.25">
       <c r="A61" s="36"/>
-      <c r="B61" s="46" t="s">
+      <c r="B61" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="D61" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E61" s="34">
-        <v>123456</v>
-      </c>
-      <c r="F61" s="18" t="s">
+      <c r="D61" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" s="32">
+        <v>123456</v>
+      </c>
+      <c r="F61" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G61" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H61" s="18" t="s">
+      <c r="G61" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H61" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8" ht="14.25">
       <c r="A62" s="36"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="18" t="s">
+      <c r="B62" s="33"/>
+      <c r="C62" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="D62" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E62" s="34">
-        <v>123456</v>
-      </c>
-      <c r="F62" s="18" t="s">
+      <c r="D62" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" s="32">
+        <v>123456</v>
+      </c>
+      <c r="F62" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G62" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H62" s="18" t="s">
+      <c r="G62" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H62" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" ht="14.25">
       <c r="A63" s="36"/>
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="D63" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E63" s="34">
-        <v>123456</v>
-      </c>
-      <c r="F63" s="18" t="s">
+      <c r="D63" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" s="32">
+        <v>123456</v>
+      </c>
+      <c r="F63" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G63" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H63" s="18" t="s">
+      <c r="G63" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" ht="14.25">
       <c r="A64" s="36"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="18" t="s">
+      <c r="B64" s="33"/>
+      <c r="C64" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="D64" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E64" s="34">
-        <v>123456</v>
-      </c>
-      <c r="F64" s="18" t="s">
+      <c r="D64" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" s="32">
+        <v>123456</v>
+      </c>
+      <c r="F64" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G64" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H64" s="18" t="s">
+      <c r="G64" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H64" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8" ht="14.25">
       <c r="A65" s="36"/>
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D65" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E65" s="34">
-        <v>123456</v>
-      </c>
-      <c r="F65" s="18" t="s">
+      <c r="D65" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="32">
+        <v>123456</v>
+      </c>
+      <c r="F65" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G65" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H65" s="18" t="s">
+      <c r="G65" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H65" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" ht="14.25">
       <c r="A66" s="36"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="18" t="s">
+      <c r="B66" s="33"/>
+      <c r="C66" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="D66" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E66" s="34">
-        <v>123456</v>
-      </c>
-      <c r="F66" s="18" t="s">
+      <c r="D66" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66" s="32">
+        <v>123456</v>
+      </c>
+      <c r="F66" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G66" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H66" s="18" t="s">
+      <c r="G66" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" s="16" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
     <mergeCell ref="A57:A66"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A3:A4"/>
@@ -3356,6 +3300,50 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3363,17 +3351,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="0" tint="-0.499984740745262"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A2:I34"/>
+  <dimension ref="B2:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="52.75" bestFit="1" customWidth="1"/>
@@ -3386,7 +3374,7 @@
     <col min="10" max="10" width="26.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9">
       <c r="B2" s="6" t="s">
         <v>87</v>
       </c>
@@ -3402,8 +3390,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="64" t="s">
+    <row r="3" spans="2:9">
+      <c r="B3" s="60" t="s">
         <v>166</v>
       </c>
       <c r="C3" s="9" t="str">
@@ -3415,8 +3403,8 @@
         <v>jdbc:mysql://11.92.186.5:3306/lddb?socketTimeout=60000&amp;useUnicode=true&amp;amp;characterEncoding=UTF-8</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="65"/>
+    <row r="4" spans="2:9">
+      <c r="B4" s="61"/>
       <c r="C4" s="9" t="str">
         <f>"jdbc:mysql://"&amp;B2&amp;":3306/ddgl?socketTimeout=60000&amp;useUnicode=true&amp;amp;characterEncoding=UTF-8"</f>
         <v>jdbc:mysql://11.92.186.7:3306/ddgl?socketTimeout=60000&amp;useUnicode=true&amp;amp;characterEncoding=UTF-8</v>
@@ -3433,8 +3421,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="65"/>
+    <row r="5" spans="2:9">
+      <c r="B5" s="61"/>
       <c r="G5" t="str">
         <f>"lddb_省到"&amp;B6&amp;"基础表"</f>
         <v>lddb_省到东河基础表</v>
@@ -3447,9 +3435,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9">
       <c r="B6" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G6" t="str">
         <f>"lddb_省到"&amp;B6&amp;"支撑表"</f>
@@ -3463,7 +3451,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9">
       <c r="B7" s="13">
         <v>143507005</v>
       </c>
@@ -3483,7 +3471,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" ht="40.5">
       <c r="C8" s="11" t="s">
         <v>42</v>
       </c>
@@ -3492,7 +3480,7 @@
         <v>select u.name from up_org_name u where u.name like '%东河%'</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" ht="54">
       <c r="C9" s="11" t="s">
         <v>32</v>
       </c>
@@ -3503,7 +3491,7 @@
 inner join up_org_unit t on t.id = u.id where u.name like '%东河%'</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9">
       <c r="C10" s="12" t="s">
         <v>33</v>
       </c>
@@ -3512,13 +3500,13 @@
         <v>MINE_CODE = '143507005'</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9">
       <c r="B11" s="6" t="s">
         <v>165</v>
       </c>
       <c r="C11" s="10"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9">
       <c r="B12">
         <v>143500000</v>
       </c>
@@ -3530,10 +3518,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9">
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9">
       <c r="B14" s="6" t="s">
         <v>164</v>
       </c>
@@ -3546,7 +3534,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9">
       <c r="C15" t="str">
         <f>B6&amp;"到"&amp;B11</f>
         <v>东河到晋煤集团</v>
@@ -3558,7 +3546,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9">
       <c r="B16" s="13">
         <v>576</v>
       </c>
@@ -3571,13 +3559,13 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8">
       <c r="D17" s="7"/>
       <c r="H17" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8">
       <c r="B18" s="6" t="str">
         <f>B2</f>
         <v>11.92.186.7</v>
@@ -3588,17 +3576,17 @@
       </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8">
       <c r="C19" t="str">
         <f>B6&amp;"到"&amp;B14</f>
         <v>东河到太原煤气化</v>
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8">
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8">
       <c r="C21" t="str">
         <f>B14&amp;"到"&amp;B6&amp;"业务表.ddgl"</f>
         <v>太原煤气化到东河业务表.ddgl</v>
@@ -3607,13 +3595,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8">
       <c r="C22" t="str">
         <f>B14&amp;"到"&amp;B6&amp;"支撑表.ddgl"</f>
         <v>太原煤气化到东河支撑表.ddgl</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8" ht="14.25" customHeight="1">
       <c r="C23" t="str">
         <f>B6&amp;"到"&amp;B14&amp;"业务表.ddgl"</f>
         <v>东河到太原煤气化业务表.ddgl</v>
@@ -3622,37 +3610,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:8">
       <c r="B25" s="13"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6"/>
-      <c r="B26" s="62" t="str">
-        <f>"insert into ddgl_province.ddgl_fjbs_relation_neu 
-select id, code, '"&amp;B18&amp;"', name, is_uplo, is_uplo_rent
-, last_uplo_date, SYSDATE, 'Y', city_name, city_code
-, xian_name, xian_code, mine_name, mine_code, decode(ip,null,null,'原IP：'||ip||'（赵）'||'新IP："&amp;B18&amp;"'||'（'||to_date(sysdate,'yymmdd')||'neu）')remark 
-from ddgl_province.ddgl_fjbs_relation where name like '%"&amp;B6&amp;"%';"</f>
-        <v>insert into ddgl_province.ddgl_fjbs_relation_neu 
-select id, code, '11.92.186.7', name, is_uplo, is_uplo_rent
-, last_uplo_date, SYSDATE, 'Y', city_name, city_code
-, xian_name, xian_code, mine_name, mine_code, decode(ip,null,null,'原IP：'||ip||'（赵）'||'新IP：11.92.186.7'||'（'||to_date(sysdate,'yymmdd')||'neu）')remark 
-from ddgl_province.ddgl_fjbs_relation where name like '%东河%';</v>
-      </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="63" t="str">
+    <row r="26" spans="2:8">
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="2:8" ht="42" customHeight="1">
+      <c r="B27" s="59" t="str">
         <f>"update ddgl_province.ddgl_fjbs_relation
 set is_bs = 'Y',bs_date = sysdate,ip = '"&amp;B2&amp;"'
 where code = '"&amp;B7&amp;"'"</f>
@@ -3660,31 +3627,11 @@
 set is_bs = 'Y',bs_date = sysdate,ip = '11.92.186.7'
 where code = '143507005'</v>
       </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="62" t="str">
-        <f>"insert into lddb.lddb_dw_ip_neu
-select id, code, '"&amp;H2&amp;"', name, is_uplo, is_uplo_rent
-, last_uplo_date, SYSDATE, 'Y', city_name, city_code
-, xian_name, xian_code, mine_name, mine_code, decode(ip,null,null,'原IP：'||ip||'（赵）'||'新IP："&amp;H2&amp;"'||'（'||to_date(sysdate,'yymmdd')||'neu）')remark 
-from lddb.lddb_dw_to_ip where name like '%"&amp;B6&amp;"%';"</f>
-        <v>insert into lddb.lddb_dw_ip_neu
-select id, code, '11.92.186.5', name, is_uplo, is_uplo_rent
-, last_uplo_date, SYSDATE, 'Y', city_name, city_code
-, xian_name, xian_code, mine_name, mine_code, decode(ip,null,null,'原IP：'||ip||'（赵）'||'新IP：11.92.186.5'||'（'||to_date(sysdate,'yymmdd')||'neu）')remark 
-from lddb.lddb_dw_to_ip where name like '%东河%';</v>
-      </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-    </row>
-    <row r="31" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="63" t="str">
+      <c r="C27" s="59"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="29" spans="2:8" ht="44.25" customHeight="1">
+      <c r="B29" s="59" t="str">
         <f>"update lddb.lddb_dw_to_ip
 set is_bs = 'Y',bs_date = sysdate,ip = '"&amp;H2&amp;"'
 where code = '"&amp;B7&amp;"'"</f>
@@ -3692,20 +3639,20 @@
 set is_bs = 'Y',bs_date = sysdate,ip = '11.92.186.5'
 where code = '143507005'</v>
       </c>
-      <c r="C31" s="63"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B33" t="str">
+      <c r="C29" s="59"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" t="str">
         <f>"select * from up_org_user r where r.org_id in (select id from up_org_unit u where u.code = '"&amp;B12&amp;"')"</f>
         <v>select * from up_org_user r where r.org_id in (select id from up_org_unit u where u.code = '143500000')</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="61" t="str">
+    <row r="32" spans="2:8" ht="41.25" customHeight="1">
+      <c r="B32" s="58" t="str">
         <f>"select r.*,r.rowid from lddb.lddb_dw_to_ip r
 where r.city_name like '%"&amp;B11&amp;"%' and r.is_bs = 'Y'
   and r.code is not null"</f>
@@ -3713,16 +3660,14 @@
 where r.city_name like '%晋煤集团%' and r.is_bs = 'Y'
   and r.code is not null</v>
       </c>
-      <c r="C34" s="61"/>
+      <c r="C32" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B31:C31"/>
+  <mergeCells count="4">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3731,14 +3676,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DDA75E-FC23-4A41-B731-B8A35E6DF845}">
-  <dimension ref="A2:I34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="B2:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="23.875" customWidth="1"/>
     <col min="3" max="3" width="52.75" bestFit="1" customWidth="1"/>
@@ -3751,9 +3699,9 @@
     <col min="10" max="10" width="26.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9">
       <c r="B2" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C2" s="9" t="str">
         <f>B14&amp;B6&amp;"_"&amp;B2</f>
@@ -3767,8 +3715,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="64" t="s">
+    <row r="3" spans="2:9">
+      <c r="B3" s="60" t="s">
         <v>167</v>
       </c>
       <c r="C3" s="9" t="str">
@@ -3780,8 +3728,8 @@
         <v>jdbc:mysql://11.92.229.5:3306/lddb?socketTimeout=60000&amp;useUnicode=true&amp;amp;characterEncoding=UTF-8</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="65"/>
+    <row r="4" spans="2:9">
+      <c r="B4" s="61"/>
       <c r="C4" s="9" t="str">
         <f>"jdbc:mysql://"&amp;B2&amp;":3306/ddgl?socketTimeout=60000&amp;useUnicode=true&amp;amp;characterEncoding=UTF-8"</f>
         <v>jdbc:mysql://11.92.229.7:3306/ddgl?socketTimeout=60000&amp;useUnicode=true&amp;amp;characterEncoding=UTF-8</v>
@@ -3798,8 +3746,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="65"/>
+    <row r="5" spans="2:9">
+      <c r="B5" s="61"/>
       <c r="G5" t="str">
         <f>"lddb_省到"&amp;B6&amp;"基础表"</f>
         <v>lddb_省到青洼基础表</v>
@@ -3812,9 +3760,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9">
       <c r="B6" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G6" t="str">
         <f>"lddb_省到"&amp;B6&amp;"支撑表"</f>
@@ -3828,7 +3776,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9">
       <c r="B7" s="13">
         <v>143509002</v>
       </c>
@@ -3848,7 +3796,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" ht="40.5">
       <c r="C8" s="11" t="s">
         <v>42</v>
       </c>
@@ -3857,7 +3805,7 @@
         <v>select u.name from up_org_name u where u.name like '%青洼%'</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" ht="54">
       <c r="C9" s="11" t="s">
         <v>32</v>
       </c>
@@ -3868,7 +3816,7 @@
 inner join up_org_unit t on t.id = u.id where u.name like '%青洼%'</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9">
       <c r="C10" s="12" t="s">
         <v>33</v>
       </c>
@@ -3877,13 +3825,13 @@
         <v>MINE_CODE = '143509002'</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9">
       <c r="B11" s="6" t="s">
         <v>165</v>
       </c>
       <c r="C11" s="10"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9">
       <c r="B12">
         <v>143500000</v>
       </c>
@@ -3895,10 +3843,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9">
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9">
       <c r="B14" s="6" t="s">
         <v>168</v>
       </c>
@@ -3909,7 +3857,7 @@
       <c r="D14" s="7"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9">
       <c r="C15" t="str">
         <f>B6&amp;"到"&amp;B11</f>
         <v>青洼到晋煤集团</v>
@@ -3921,7 +3869,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9">
       <c r="B16" s="13">
         <v>604</v>
       </c>
@@ -3934,13 +3882,13 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8">
       <c r="D17" s="7"/>
       <c r="H17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8">
       <c r="B18" s="6" t="str">
         <f>B2</f>
         <v>11.92.229.7</v>
@@ -3954,17 +3902,17 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8">
       <c r="C19" t="str">
         <f>B6&amp;"到"&amp;B14</f>
         <v>青洼到晟泰公司</v>
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8">
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8">
       <c r="C21" t="str">
         <f>B11&amp;"到"&amp;B6&amp;"业务表.ddgl"</f>
         <v>晋煤集团到青洼业务表.ddgl</v>
@@ -3973,13 +3921,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8">
       <c r="C22" t="str">
         <f>B11&amp;"到"&amp;B6&amp;"支撑表.ddgl"</f>
         <v>晋煤集团到青洼支撑表.ddgl</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8" ht="14.25" customHeight="1">
       <c r="C23" t="str">
         <f>B6&amp;"到"&amp;B11&amp;"业务表.ddgl"</f>
         <v>青洼到晋煤集团业务表.ddgl</v>
@@ -3988,37 +3936,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:8">
       <c r="B25" s="13"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6"/>
-      <c r="B26" s="62" t="str">
-        <f>"insert into ddgl_province.ddgl_fjbs_relation_neu 
-select id, code, '"&amp;B18&amp;"', name, is_uplo, is_uplo_rent
-, last_uplo_date, SYSDATE, 'Y', city_name, city_code
-, xian_name, xian_code, mine_name, mine_code, decode(ip,null,null,'原IP：'||ip||'（赵）'||'新IP："&amp;B18&amp;"'||'（'||to_date(sysdate,'yymmdd')||'neu）')remark 
-from ddgl_province.ddgl_fjbs_relation where name like '%"&amp;B6&amp;"%';"</f>
-        <v>insert into ddgl_province.ddgl_fjbs_relation_neu 
-select id, code, '11.92.229.7', name, is_uplo, is_uplo_rent
-, last_uplo_date, SYSDATE, 'Y', city_name, city_code
-, xian_name, xian_code, mine_name, mine_code, decode(ip,null,null,'原IP：'||ip||'（赵）'||'新IP：11.92.229.7'||'（'||to_date(sysdate,'yymmdd')||'neu）')remark 
-from ddgl_province.ddgl_fjbs_relation where name like '%青洼%';</v>
-      </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="63" t="str">
+    <row r="26" spans="2:8">
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="2:8" ht="42" customHeight="1">
+      <c r="B27" s="59" t="str">
         <f>"update ddgl_province.ddgl_fjbs_relation
 set is_bs = 'Y',bs_date = sysdate,ip = '"&amp;B2&amp;"'
 where code = '"&amp;B7&amp;"'"</f>
@@ -4026,31 +3953,11 @@
 set is_bs = 'Y',bs_date = sysdate,ip = '11.92.229.7'
 where code = '143509002'</v>
       </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="62" t="str">
-        <f>"insert into lddb.lddb_dw_ip_neu
-select id, code, '"&amp;H2&amp;"', name, is_uplo, is_uplo_rent
-, last_uplo_date, SYSDATE, 'Y', city_name, city_code
-, xian_name, xian_code, mine_name, mine_code, decode(ip,null,null,'原IP：'||ip||'（赵）'||'新IP："&amp;H2&amp;"'||'（'||to_date(sysdate,'yymmdd')||'neu）')remark 
-from lddb.lddb_dw_to_ip where name like '%"&amp;B6&amp;"%';"</f>
-        <v>insert into lddb.lddb_dw_ip_neu
-select id, code, '11.92.229.5', name, is_uplo, is_uplo_rent
-, last_uplo_date, SYSDATE, 'Y', city_name, city_code
-, xian_name, xian_code, mine_name, mine_code, decode(ip,null,null,'原IP：'||ip||'（赵）'||'新IP：11.92.229.5'||'（'||to_date(sysdate,'yymmdd')||'neu）')remark 
-from lddb.lddb_dw_to_ip where name like '%青洼%';</v>
-      </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="31" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="63" t="str">
+      <c r="C27" s="59"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="29" spans="2:8" ht="44.25" customHeight="1">
+      <c r="B29" s="59" t="str">
         <f>"update lddb.lddb_dw_to_ip
 set is_bs = 'Y',bs_date = sysdate,ip = '"&amp;H2&amp;"'
 where code = '"&amp;B7&amp;"'"</f>
@@ -4058,20 +3965,20 @@
 set is_bs = 'Y',bs_date = sysdate,ip = '11.92.229.5'
 where code = '143509002'</v>
       </c>
-      <c r="C31" s="63"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B33" t="str">
+      <c r="C29" s="59"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" t="str">
         <f>"select * from up_org_user r where r.org_id in (select id from up_org_unit u where u.code = '"&amp;B12&amp;"')"</f>
         <v>select * from up_org_user r where r.org_id in (select id from up_org_unit u where u.code = '143500000')</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="61" t="str">
+    <row r="32" spans="2:8" ht="41.25" customHeight="1">
+      <c r="B32" s="58" t="str">
         <f>"select r.*,r.rowid from lddb.lddb_dw_to_ip r
 where r.city_name like '%"&amp;B11&amp;"%' and r.is_bs = 'Y'
   and r.code is not null"</f>
@@ -4079,16 +3986,14 @@
 where r.city_name like '%晋煤集团%' and r.is_bs = 'Y'
   and r.code is not null</v>
       </c>
-      <c r="C34" s="61"/>
+      <c r="C32" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B34:C34"/>
+  <mergeCells count="4">
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4097,17 +4002,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E14216-8DA4-4527-8BF8-9FD06C85C3EA}">
-  <sheetPr>
-    <tabColor theme="0" tint="-0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A2:I34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="23.875" customWidth="1"/>
     <col min="3" max="3" width="52.75" bestFit="1" customWidth="1"/>
@@ -4120,55 +4022,55 @@
     <col min="10" max="10" width="26.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9">
       <c r="B2" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C2" s="9" t="str">
         <f>B14&amp;B6&amp;"_"&amp;B2</f>
-        <v>晋煤集团直属晋牛_11.92.33.7</v>
+        <v>晋煤晋牛_11.92.33.7</v>
       </c>
       <c r="G2" s="6" t="str">
         <f>"lddb_"&amp;B14&amp;B6&amp;"_"&amp;H2</f>
-        <v>lddb_晋煤集团直属晋牛_11.92.33.6</v>
+        <v>lddb_晋煤晋牛_11.92.33.6</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="64" t="s">
-        <v>169</v>
+    <row r="3" spans="2:9">
+      <c r="B3" s="60" t="s">
+        <v>172</v>
       </c>
       <c r="C3" s="9" t="str">
         <f>B14&amp;B6&amp;"_"&amp;B2&amp;".ddgl"</f>
-        <v>晋煤集团直属晋牛_11.92.33.7.ddgl</v>
+        <v>晋煤晋牛_11.92.33.7.ddgl</v>
       </c>
       <c r="G3" s="9" t="str">
         <f>"jdbc:mysql://"&amp;H2&amp;":3306/lddb?socketTimeout=60000&amp;useUnicode=true&amp;amp;characterEncoding=UTF-8"</f>
         <v>jdbc:mysql://11.92.33.6:3306/lddb?socketTimeout=60000&amp;useUnicode=true&amp;amp;characterEncoding=UTF-8</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="65"/>
+    <row r="4" spans="2:9">
+      <c r="B4" s="61"/>
       <c r="C4" s="9" t="str">
         <f>"jdbc:mysql://"&amp;B2&amp;":3306/ddgl?socketTimeout=60000&amp;useUnicode=true&amp;amp;characterEncoding=UTF-8"</f>
         <v>jdbc:mysql://11.92.33.7:3306/ddgl?socketTimeout=60000&amp;useUnicode=true&amp;amp;characterEncoding=UTF-8</v>
       </c>
       <c r="G4" t="str">
         <f>"lddb_"&amp;B14&amp;"到"&amp;B6&amp;"业务表"</f>
-        <v>lddb_晋煤集团直属到晋牛业务表</v>
+        <v>lddb_晋煤到晋牛业务表</v>
       </c>
       <c r="H4" s="6" t="str">
         <f>"s_add_"&amp;B6&amp;"_"&amp;H2&amp;"_lddb_ssxjxx、"&amp;B14&amp;"到"&amp;B6</f>
-        <v>s_add_晋牛_11.92.33.6_lddb_ssxjxx、晋煤集团直属到晋牛</v>
+        <v>s_add_晋牛_11.92.33.6_lddb_ssxjxx、晋煤到晋牛</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="65"/>
+    <row r="5" spans="2:9">
+      <c r="B5" s="61"/>
       <c r="G5" t="str">
         <f>"lddb_省到"&amp;B6&amp;"基础表"</f>
         <v>lddb_省到晋牛基础表</v>
@@ -4181,7 +4083,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9">
       <c r="B6" s="6" t="s">
         <v>163</v>
       </c>
@@ -4197,27 +4099,27 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9">
       <c r="B7" s="13">
         <v>143505001</v>
       </c>
       <c r="C7" s="10" t="str">
         <f>B14&amp;B6&amp;"_"&amp;B2&amp;".ddgl"</f>
-        <v>晋煤集团直属晋牛_11.92.33.7.ddgl</v>
+        <v>晋煤晋牛_11.92.33.7.ddgl</v>
       </c>
       <c r="G7" t="str">
         <f>"lddb_"&amp;B6&amp;"到"&amp;B14&amp;"业务表"</f>
-        <v>lddb_晋牛到晋煤集团直属业务表</v>
+        <v>lddb_晋牛到晋煤业务表</v>
       </c>
       <c r="H7" s="6" t="str">
         <f>B6&amp;"到"&amp;B14</f>
-        <v>晋牛到晋煤集团直属</v>
+        <v>晋牛到晋煤</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" ht="40.5">
       <c r="C8" s="11" t="s">
         <v>42</v>
       </c>
@@ -4226,18 +4128,16 @@
         <v>select u.name from up_org_name u where u.name like '%晋牛%'</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" ht="54">
       <c r="C9" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="6" t="str">
-        <f>"select u.id,u.code,u.name,t.name,u.DISTRICT,u.DISTRICT_NAME,u.city,u.city_name from view_full_region u
-inner join up_org_unit t on t.id = u.id where u.name like '%"&amp;B6&amp;"%'"</f>
-        <v>select u.id,u.code,u.name,t.name,u.DISTRICT,u.DISTRICT_NAME,u.city,u.city_name from view_full_region u
-inner join up_org_unit t on t.id = u.id where u.name like '%晋牛%'</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+        <f>"select u.id,u.code,u.MINE_NAME_F,u.name,u.DISTRICT,u.DISTRICT_NAME,u.city,u.city_name from view_full_region u where u.name like '%"&amp;B6&amp;"%'"</f>
+        <v>select u.id,u.code,u.MINE_NAME_F,u.name,u.DISTRICT,u.DISTRICT_NAME,u.city,u.city_name from view_full_region u where u.name like '%晋牛%'</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
       <c r="C10" s="12" t="s">
         <v>33</v>
       </c>
@@ -4246,30 +4146,30 @@
         <v>MINE_CODE = '143505001'</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9">
       <c r="B11" s="6" t="s">
         <v>165</v>
       </c>
       <c r="C11" s="10"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9">
       <c r="B12">
-        <v>143500000</v>
+        <v>143501000</v>
       </c>
       <c r="C12" s="10" t="str">
         <f>B14&amp;B6&amp;"_"&amp;B2&amp;".ddgl_infotip"</f>
-        <v>晋煤集团直属晋牛_11.92.33.7.ddgl_infotip</v>
+        <v>晋煤晋牛_11.92.33.7.ddgl_infotip</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9">
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9">
       <c r="B14" s="6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C14" t="str">
         <f>B11&amp;"到"&amp;B6</f>
@@ -4278,7 +4178,7 @@
       <c r="D14" s="7"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9">
       <c r="C15" t="str">
         <f>B6&amp;"到"&amp;B11</f>
         <v>晋牛到晋煤集团</v>
@@ -4290,7 +4190,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9">
       <c r="B16" s="13">
         <v>558</v>
       </c>
@@ -4303,91 +4203,70 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8">
       <c r="D17" s="7"/>
       <c r="H17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8">
       <c r="B18" s="6" t="str">
         <f>B2</f>
         <v>11.92.33.7</v>
       </c>
       <c r="C18" t="str">
         <f>B14&amp;"到"&amp;B6</f>
-        <v>晋煤集团直属到晋牛</v>
+        <v>晋煤到晋牛</v>
       </c>
       <c r="D18" s="7"/>
       <c r="H18" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8">
       <c r="C19" t="str">
         <f>B6&amp;"到"&amp;B14</f>
-        <v>晋牛到晋煤集团直属</v>
+        <v>晋牛到晋煤</v>
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8">
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8">
       <c r="C21" t="str">
         <f>B14&amp;"到"&amp;B6&amp;"业务表.ddgl"</f>
-        <v>晋煤集团直属到晋牛业务表.ddgl</v>
+        <v>晋煤到晋牛业务表.ddgl</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8">
       <c r="C22" t="str">
         <f>B14&amp;"到"&amp;B6&amp;"支撑表.ddgl"</f>
-        <v>晋煤集团直属到晋牛支撑表.ddgl</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>晋煤到晋牛支撑表.ddgl</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="14.25" customHeight="1">
       <c r="C23" t="str">
         <f>B6&amp;"到"&amp;B14&amp;"业务表.ddgl"</f>
-        <v>晋牛到晋煤集团直属业务表.ddgl</v>
+        <v>晋牛到晋煤业务表.ddgl</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:8">
       <c r="B25" s="13"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6"/>
-      <c r="B26" s="62" t="str">
-        <f>"insert into ddgl_province.ddgl_fjbs_relation_neu 
-select id, code, '"&amp;B18&amp;"', name, is_uplo, is_uplo_rent
-, last_uplo_date, SYSDATE, 'Y', city_name, city_code
-, xian_name, xian_code, mine_name, mine_code, decode(ip,null,null,'原IP：'||ip||'（赵）'||'新IP："&amp;B18&amp;"'||'（'||to_date(sysdate,'yymmdd')||'neu）')remark 
-from ddgl_province.ddgl_fjbs_relation where name like '%"&amp;B6&amp;"%';"</f>
-        <v>insert into ddgl_province.ddgl_fjbs_relation_neu 
-select id, code, '11.92.33.7', name, is_uplo, is_uplo_rent
-, last_uplo_date, SYSDATE, 'Y', city_name, city_code
-, xian_name, xian_code, mine_name, mine_code, decode(ip,null,null,'原IP：'||ip||'（赵）'||'新IP：11.92.33.7'||'（'||to_date(sysdate,'yymmdd')||'neu）')remark 
-from ddgl_province.ddgl_fjbs_relation where name like '%晋牛%';</v>
-      </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="63" t="str">
+    <row r="26" spans="2:8">
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="2:8" ht="42" customHeight="1">
+      <c r="B27" s="59" t="str">
         <f>"update ddgl_province.ddgl_fjbs_relation
 set is_bs = 'Y',bs_date = sysdate,ip = '"&amp;B2&amp;"'
 where code = '"&amp;B7&amp;"'"</f>
@@ -4395,31 +4274,11 @@
 set is_bs = 'Y',bs_date = sysdate,ip = '11.92.33.7'
 where code = '143505001'</v>
       </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="62" t="str">
-        <f>"insert into lddb.lddb_dw_ip_neu
-select id, code, '"&amp;H2&amp;"', name, is_uplo, is_uplo_rent
-, last_uplo_date, SYSDATE, 'Y', city_name, city_code
-, xian_name, xian_code, mine_name, mine_code, decode(ip,null,null,'原IP：'||ip||'（赵）'||'新IP："&amp;H2&amp;"'||'（'||to_date(sysdate,'yymmdd')||'neu）')remark 
-from lddb.lddb_dw_to_ip where name like '%"&amp;B6&amp;"%';"</f>
-        <v>insert into lddb.lddb_dw_ip_neu
-select id, code, '11.92.33.6', name, is_uplo, is_uplo_rent
-, last_uplo_date, SYSDATE, 'Y', city_name, city_code
-, xian_name, xian_code, mine_name, mine_code, decode(ip,null,null,'原IP：'||ip||'（赵）'||'新IP：11.92.33.6'||'（'||to_date(sysdate,'yymmdd')||'neu）')remark 
-from lddb.lddb_dw_to_ip where name like '%晋牛%';</v>
-      </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-    </row>
-    <row r="31" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="63" t="str">
+      <c r="C27" s="59"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="29" spans="2:8" ht="44.25" customHeight="1">
+      <c r="B29" s="59" t="str">
         <f>"update lddb.lddb_dw_to_ip
 set is_bs = 'Y',bs_date = sysdate,ip = '"&amp;H2&amp;"'
 where code = '"&amp;B7&amp;"'"</f>
@@ -4427,20 +4286,20 @@
 set is_bs = 'Y',bs_date = sysdate,ip = '11.92.33.6'
 where code = '143505001'</v>
       </c>
-      <c r="C31" s="63"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B33" t="str">
+      <c r="C29" s="59"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" t="str">
         <f>"select * from up_org_user r where r.org_id in (select id from up_org_unit u where u.code = '"&amp;B12&amp;"')"</f>
-        <v>select * from up_org_user r where r.org_id in (select id from up_org_unit u where u.code = '143500000')</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="61" t="str">
+        <v>select * from up_org_user r where r.org_id in (select id from up_org_unit u where u.code = '143501000')</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="41.25" customHeight="1">
+      <c r="B32" s="58" t="str">
         <f>"select r.*,r.rowid from lddb.lddb_dw_to_ip r
 where r.city_name like '%"&amp;B11&amp;"%' and r.is_bs = 'Y'
   and r.code is not null"</f>
@@ -4448,16 +4307,14 @@
 where r.city_name like '%晋煤集团%' and r.is_bs = 'Y'
   and r.code is not null</v>
       </c>
-      <c r="C34" s="61"/>
+      <c r="C32" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B34:C34"/>
+  <mergeCells count="4">
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4466,14 +4323,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="25.375" customWidth="1"/>
@@ -4484,7 +4341,7 @@
     <col min="7" max="7" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -4501,8 +4358,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="66" t="s">
+    <row r="2" spans="1:6">
+      <c r="B2" s="62" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
@@ -4515,8 +4372,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="66"/>
+    <row r="3" spans="1:6">
+      <c r="B3" s="62"/>
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -4524,8 +4381,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="66"/>
+    <row r="4" spans="1:6">
+      <c r="B4" s="62"/>
       <c r="C4" t="s">
         <v>14</v>
       </c>
@@ -4533,8 +4390,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="66"/>
+    <row r="5" spans="1:6">
+      <c r="B5" s="62"/>
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -4542,8 +4399,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="66"/>
+    <row r="6" spans="1:6">
+      <c r="B6" s="62"/>
       <c r="C6" t="s">
         <v>18</v>
       </c>
@@ -4551,8 +4408,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="66" t="s">
+    <row r="7" spans="1:6">
+      <c r="B7" s="62" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
@@ -4565,13 +4422,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="66"/>
+    <row r="8" spans="1:6">
+      <c r="B8" s="62"/>
       <c r="E8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
@@ -4579,8 +4436,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="B10" s="66" t="s">
+    <row r="10" spans="1:6" ht="20.25">
+      <c r="B10" s="62" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -4593,8 +4450,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="B11" s="66"/>
+    <row r="11" spans="1:6" ht="20.25">
+      <c r="B11" s="62"/>
       <c r="C11" t="s">
         <v>30</v>
       </c>
@@ -4602,11 +4459,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="66"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="66"/>
+    <row r="12" spans="1:6">
+      <c r="B12" s="62"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4616,8 +4473,8 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
-    <hyperlink ref="F11" r:id="rId2" tooltip="mailto:Sxmtt@123" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
+    <hyperlink ref="C10" r:id="rId1"/>
+    <hyperlink ref="F11" r:id="rId2" tooltip="mailto:Sxmtt@123"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>

--- a/fjbs/部署步骤 - 晋煤.xlsx
+++ b/fjbs/部署步骤 - 晋煤.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cut\miao\fjbs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="7950" tabRatio="731" activeTab="3"/>
   </bookViews>
@@ -18,7 +13,7 @@
     <sheet name="晋牛" sheetId="23" r:id="rId4"/>
     <sheet name="sc平台地址" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="184">
   <si>
     <t>县局</t>
   </si>
@@ -949,11 +944,43 @@
     <t>晋煤</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>11.92.33.7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.92.33.6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_add_晋牛_11.92.33.6_lddb_ssxjxx、晋煤到晋牛</t>
+  </si>
+  <si>
+    <t>s_add_晋牛_11.92.33.6_lddb_bcxx、s_add_晋牛_11.92.33.6_lddb_jxzyry</t>
+  </si>
+  <si>
+    <t>s_add_晋牛_11.92.33.6_lddb</t>
+  </si>
+  <si>
+    <t>晋牛到晋煤</t>
+  </si>
+  <si>
+    <t>lddb_晋煤到晋牛业务表</t>
+  </si>
+  <si>
+    <t>lddb_省到晋牛基础表</t>
+  </si>
+  <si>
+    <t>lddb_省到晋牛支撑表</t>
+  </si>
+  <si>
+    <t>lddb_晋牛到晋煤业务表</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="13">
     <font>
       <sz val="11"/>
@@ -1051,7 +1078,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1079,6 +1106,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,7 +1230,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1292,7 +1325,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1300,8 +1336,41 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1309,6 +1378,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1327,45 +1399,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1380,6 +1413,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1688,7 +1724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1709,10 +1745,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="34" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="15" t="s">
@@ -1735,8 +1771,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="57"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="15" t="s">
         <v>44</v>
       </c>
@@ -1757,10 +1793,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="34" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="19" t="s">
@@ -1783,8 +1819,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="57"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="15" t="s">
         <v>65</v>
       </c>
@@ -1805,10 +1841,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="34" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -1831,8 +1867,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="57"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="19" t="s">
         <v>55</v>
       </c>
@@ -1853,10 +1889,10 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="37" t="s">
         <v>58</v>
       </c>
       <c r="C7" s="20" t="s">
@@ -1879,8 +1915,8 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="45"/>
-      <c r="B8" s="55"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="20" t="s">
         <v>67</v>
       </c>
@@ -1901,10 +1937,10 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="40" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="22" t="s">
@@ -1927,8 +1963,8 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="45"/>
-      <c r="B10" s="55"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="21" t="s">
         <v>70</v>
       </c>
@@ -1949,10 +1985,10 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="40" t="s">
         <v>71</v>
       </c>
       <c r="C11" s="22" t="s">
@@ -1975,8 +2011,8 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="45"/>
-      <c r="B12" s="55"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="21" t="s">
         <v>73</v>
       </c>
@@ -1997,10 +2033,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="40" t="s">
         <v>74</v>
       </c>
       <c r="C13" s="24" t="s">
@@ -2023,8 +2059,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="55"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="18" t="s">
         <v>76</v>
       </c>
@@ -2045,10 +2081,10 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="40" t="s">
         <v>78</v>
       </c>
       <c r="C15" s="22" t="s">
@@ -2071,8 +2107,8 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="45"/>
-      <c r="B16" s="55"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="21" t="s">
         <v>80</v>
       </c>
@@ -2093,10 +2129,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.25">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="40" t="s">
         <v>81</v>
       </c>
       <c r="C17" s="24" t="s">
@@ -2119,8 +2155,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="55"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="18" t="s">
         <v>83</v>
       </c>
@@ -2141,10 +2177,10 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="42" t="s">
         <v>85</v>
       </c>
       <c r="C19" s="17" t="s">
@@ -2167,8 +2203,8 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="35"/>
-      <c r="B20" s="49"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="17" t="s">
         <v>87</v>
       </c>
@@ -2189,10 +2225,10 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="42" t="s">
         <v>89</v>
       </c>
       <c r="C21" s="17" t="s">
@@ -2215,8 +2251,8 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="33"/>
-      <c r="B22" s="49"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="17" t="s">
         <v>91</v>
       </c>
@@ -2237,10 +2273,10 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="42" t="s">
         <v>92</v>
       </c>
       <c r="C23" s="17" t="s">
@@ -2263,8 +2299,8 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="45"/>
-      <c r="B24" s="49" t="s">
+      <c r="A24" s="39"/>
+      <c r="B24" s="42" t="s">
         <v>94</v>
       </c>
       <c r="C24" s="17" t="s">
@@ -2287,10 +2323,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="44" t="s">
         <v>96</v>
       </c>
       <c r="C25" s="16" t="s">
@@ -2311,8 +2347,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="51"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="16" t="s">
         <v>98</v>
       </c>
@@ -2331,10 +2367,10 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="46" t="s">
         <v>99</v>
       </c>
       <c r="C27" s="25" t="s">
@@ -2357,8 +2393,8 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="45"/>
-      <c r="B28" s="52"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="25" t="s">
         <v>101</v>
       </c>
@@ -2379,10 +2415,10 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="42" t="s">
         <v>103</v>
       </c>
       <c r="C29" s="17" t="s">
@@ -2405,8 +2441,8 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="45"/>
-      <c r="B30" s="49"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="17" t="s">
         <v>104</v>
       </c>
@@ -2427,10 +2463,10 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="42" t="s">
         <v>105</v>
       </c>
       <c r="C31" s="17" t="s">
@@ -2453,8 +2489,8 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="45"/>
-      <c r="B32" s="49"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="17" t="s">
         <v>107</v>
       </c>
@@ -2475,10 +2511,10 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="42" t="s">
         <v>108</v>
       </c>
       <c r="C33" s="17" t="s">
@@ -2501,8 +2537,8 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="45"/>
-      <c r="B34" s="49"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="17" t="s">
         <v>110</v>
       </c>
@@ -2523,10 +2559,10 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="42" t="s">
         <v>111</v>
       </c>
       <c r="C35" s="17" t="s">
@@ -2549,8 +2585,8 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="45"/>
-      <c r="B36" s="49" t="s">
+      <c r="A36" s="39"/>
+      <c r="B36" s="42" t="s">
         <v>113</v>
       </c>
       <c r="C36" s="17" t="s">
@@ -2573,10 +2609,10 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="42" t="s">
         <v>115</v>
       </c>
       <c r="C37" s="17" t="s">
@@ -2599,8 +2635,8 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="45"/>
-      <c r="B38" s="49" t="s">
+      <c r="A38" s="39"/>
+      <c r="B38" s="42" t="s">
         <v>117</v>
       </c>
       <c r="C38" s="17" t="s">
@@ -2623,10 +2659,10 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="42" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="17" t="s">
@@ -2649,8 +2685,8 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="45"/>
-      <c r="B40" s="49"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="42"/>
       <c r="C40" s="17" t="s">
         <v>80</v>
       </c>
@@ -2671,10 +2707,10 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.25">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="47" t="s">
         <v>119</v>
       </c>
       <c r="C41" s="18" t="s">
@@ -2697,8 +2733,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="14.25">
-      <c r="A42" s="45"/>
-      <c r="B42" s="47"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="18" t="s">
         <v>121</v>
       </c>
@@ -2719,10 +2755,10 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="49" t="s">
         <v>123</v>
       </c>
       <c r="C43" s="26" t="s">
@@ -2745,8 +2781,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="14.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="38"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="25" t="s">
         <v>126</v>
       </c>
@@ -2767,8 +2803,8 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="42"/>
-      <c r="B45" s="37" t="s">
+      <c r="A45" s="55"/>
+      <c r="B45" s="49" t="s">
         <v>127</v>
       </c>
       <c r="C45" s="26" t="s">
@@ -2791,8 +2827,8 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="43"/>
-      <c r="B46" s="48"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="25" t="s">
         <v>130</v>
       </c>
@@ -2813,8 +2849,8 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="42"/>
-      <c r="B47" s="37" t="s">
+      <c r="A47" s="55"/>
+      <c r="B47" s="49" t="s">
         <v>131</v>
       </c>
       <c r="C47" s="26" t="s">
@@ -2837,8 +2873,8 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="44"/>
-      <c r="B48" s="38"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="25" t="s">
         <v>134</v>
       </c>
@@ -2859,10 +2895,10 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="14.25">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="35" t="s">
         <v>136</v>
       </c>
       <c r="C49" s="30" t="s">
@@ -2885,8 +2921,8 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="14.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="35"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="36"/>
       <c r="C50" s="30" t="s">
         <v>138</v>
       </c>
@@ -2907,10 +2943,10 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="14.25">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="33" t="s">
         <v>46</v>
       </c>
       <c r="C51" s="16" t="s">
@@ -2933,8 +2969,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="14.25">
-      <c r="A52" s="35"/>
-      <c r="B52" s="36"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="33"/>
       <c r="C52" s="16" t="s">
         <v>43</v>
       </c>
@@ -2955,10 +2991,10 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="14.25">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="33" t="s">
         <v>49</v>
       </c>
       <c r="C53" s="31" t="s">
@@ -2981,8 +3017,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="14.25">
-      <c r="A54" s="35"/>
-      <c r="B54" s="36"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="16" t="s">
         <v>48</v>
       </c>
@@ -3003,10 +3039,10 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="14.25">
-      <c r="A55" s="34" t="s">
+      <c r="A55" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="33" t="s">
         <v>52</v>
       </c>
       <c r="C55" s="16" t="s">
@@ -3029,8 +3065,8 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="14.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="36"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="33"/>
       <c r="C56" s="31" t="s">
         <v>54</v>
       </c>
@@ -3051,10 +3087,10 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="14.25">
-      <c r="A57" s="36" t="s">
+      <c r="A57" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="43" t="s">
         <v>140</v>
       </c>
       <c r="C57" s="16" t="s">
@@ -3077,8 +3113,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="14.25">
-      <c r="A58" s="36"/>
-      <c r="B58" s="33"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="43"/>
       <c r="C58" s="16" t="s">
         <v>142</v>
       </c>
@@ -3099,8 +3135,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="14.25">
-      <c r="A59" s="36"/>
-      <c r="B59" s="33" t="s">
+      <c r="A59" s="33"/>
+      <c r="B59" s="43" t="s">
         <v>143</v>
       </c>
       <c r="C59" s="16" t="s">
@@ -3123,8 +3159,8 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="14.25">
-      <c r="A60" s="36"/>
-      <c r="B60" s="33"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="43"/>
       <c r="C60" s="16" t="s">
         <v>145</v>
       </c>
@@ -3145,8 +3181,8 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="14.25">
-      <c r="A61" s="36"/>
-      <c r="B61" s="33" t="s">
+      <c r="A61" s="33"/>
+      <c r="B61" s="43" t="s">
         <v>146</v>
       </c>
       <c r="C61" s="16" t="s">
@@ -3169,8 +3205,8 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="14.25">
-      <c r="A62" s="36"/>
-      <c r="B62" s="33"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="43"/>
       <c r="C62" s="16" t="s">
         <v>148</v>
       </c>
@@ -3191,8 +3227,8 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="14.25">
-      <c r="A63" s="36"/>
-      <c r="B63" s="33" t="s">
+      <c r="A63" s="33"/>
+      <c r="B63" s="43" t="s">
         <v>149</v>
       </c>
       <c r="C63" s="16" t="s">
@@ -3215,8 +3251,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="14.25">
-      <c r="A64" s="36"/>
-      <c r="B64" s="33"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="43"/>
       <c r="C64" s="16" t="s">
         <v>151</v>
       </c>
@@ -3237,8 +3273,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="14.25">
-      <c r="A65" s="36"/>
-      <c r="B65" s="33" t="s">
+      <c r="A65" s="33"/>
+      <c r="B65" s="43" t="s">
         <v>152</v>
       </c>
       <c r="C65" s="16" t="s">
@@ -3261,8 +3297,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="14.25">
-      <c r="A66" s="36"/>
-      <c r="B66" s="33"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="43"/>
       <c r="C66" s="16" t="s">
         <v>154</v>
       </c>
@@ -3284,6 +3320,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="A57:A66"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A3:A4"/>
@@ -3300,50 +3380,6 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:B66"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3351,14 +3387,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="B2:I32"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:C32"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3676,14 +3712,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="B2:I32"/>
   <sheetViews>
     <sheetView topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:C32"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4002,11 +4038,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="B2:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4024,7 +4063,7 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="6" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="C2" s="9" t="str">
         <f>B14&amp;B6&amp;"_"&amp;B2</f>
@@ -4035,14 +4074,14 @@
         <v>lddb_晋煤晋牛_11.92.33.6</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>100</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="9" t="str">
+      <c r="C3" s="63" t="str">
         <f>B14&amp;B6&amp;"_"&amp;B2&amp;".ddgl"</f>
         <v>晋煤晋牛_11.92.33.7.ddgl</v>
       </c>
@@ -4186,8 +4225,11 @@
       <c r="D15" s="8" t="s">
         <v>37</v>
       </c>
+      <c r="G15" t="s">
+        <v>180</v>
+      </c>
       <c r="H15" s="6" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -4199,14 +4241,20 @@
         <v>COMPANY_CODE='558'</v>
       </c>
       <c r="D16" s="7"/>
+      <c r="G16" t="s">
+        <v>181</v>
+      </c>
       <c r="H16" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="D17" s="7"/>
+      <c r="G17" t="s">
+        <v>182</v>
+      </c>
       <c r="H17" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -4219,8 +4267,11 @@
         <v>晋煤到晋牛</v>
       </c>
       <c r="D18" s="7"/>
+      <c r="G18" t="s">
+        <v>183</v>
+      </c>
       <c r="H18" s="6" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -4323,7 +4374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
